--- a/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
@@ -515,7 +515,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>580.08</v>
+        <v>2610.36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>8796.99</v>
+        <v>38150.94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4585.70</v>
+        <v>20018.98</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2745.97</v>
+        <v>16948.44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1223.37</v>
+        <v>6376.97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>3397.61</v>
+        <v>16760.28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1716.66</v>
+        <v>8633.05</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>6255.05</v>
+        <v>31334.56</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1759.07</v>
+        <v>8843.27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>4846.85</v>
+        <v>30142.80</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>302.20</v>
+        <v>2472.08</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>1910.86</v>
+        <v>9337.50</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>189.59</v>
+        <v>796.31</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1420.49</v>
+        <v>6956.22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>1148.71</v>
+        <v>4758.31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>3302.83</v>
+        <v>15378.64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>668.82</v>
+        <v>5433.11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>553.58</v>
+        <v>2571.91</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>135.45</v>
+        <v>629.70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>418.90</v>
+        <v>2638.45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>955.36</v>
+        <v>3831.08</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>2962.96</v>
+        <v>12041.71</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>376.80</v>
+        <v>2569.26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>391.76</v>
+        <v>1762.92</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>1157.02</v>
+        <v>5206.59</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>3242.71</v>
+        <v>13857.35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>1056.02</v>
+        <v>4619.99</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>2767.65</v>
+        <v>12612.41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>709.24</v>
+        <v>3191.58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>1214.30</v>
+        <v>4185.24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>221.00</v>
+        <v>436.39</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>324.98</v>
+        <v>1570.17</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>1804.49</v>
+        <v>6836.89</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>2032.84</v>
+        <v>10945.88</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1494.87</v>
+        <v>6222.71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>292.84</v>
+        <v>991.41</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>719.25</v>
+        <v>3157.67</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>1185.60</v>
+        <v>5451.55</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>2240.76</v>
+        <v>10083.42</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>1454.68</v>
+        <v>6176.47</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>360.44</v>
+        <v>1621.98</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>653.70</v>
+        <v>2181.84</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>department</t>
   </si>
@@ -52,52 +52,37 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -106,33 +91,33 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
     <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
   </si>
   <si>
+    <t>D6781</t>
+  </si>
+  <si>
     <t>D6790</t>
   </si>
   <si>
-    <t>D7000</t>
-  </si>
-  <si>
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -146,6 +131,12 @@
   </si>
   <si>
     <t>D8060</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D9012</t>
   </si>
 </sst>
 </file>
@@ -508,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2610.36</v>
+        <v>8075.43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>38150.94</v>
+        <v>32807.60</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>20018.98</v>
+        <v>11337.81</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>16948.44</v>
+        <v>20617.24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>6376.97</v>
+        <v>4289.14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>16760.28</v>
+        <v>8449.72</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>8633.05</v>
+        <v>5806.29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>31334.56</v>
+        <v>20701.03</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>8843.27</v>
+        <v>14202.35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>30142.80</v>
+        <v>66202.79</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>2472.08</v>
+        <v>14355.24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>9337.50</v>
+        <v>3270.05</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>796.31</v>
+        <v>1565.49</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>6956.22</v>
+        <v>7526.61</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>4758.31</v>
+        <v>1335.31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>15378.64</v>
+        <v>8356.77</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>5433.11</v>
+        <v>9542.01</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>2571.91</v>
+        <v>14464.06</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>629.70</v>
+        <v>3228.41</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>2638.45</v>
+        <v>278.10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>3831.08</v>
+        <v>4881.97</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>12041.71</v>
+        <v>3473.20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>2569.26</v>
+        <v>1877.22</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1762.92</v>
+        <v>3520.72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>5206.59</v>
+        <v>2560.46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>13857.35</v>
+        <v>6140.57</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>4619.99</v>
+        <v>5948.91</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>12612.41</v>
+        <v>1688.90</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>3191.58</v>
+        <v>240.76</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>4185.24</v>
+        <v>4330.24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>436.39</v>
+        <v>2719.80</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1570.17</v>
+        <v>8379.36</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>6836.89</v>
+        <v>6821.30</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>10945.88</v>
+        <v>6923.07</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>6222.71</v>
+        <v>5213.11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>991.41</v>
+        <v>2564.13</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>3157.67</v>
+        <v>6174.90</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>5451.55</v>
+        <v>2167.37</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,31 +826,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>10083.42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>6176.47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1621.98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>2181.84</v>
+        <v>864.00</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>department</t>
   </si>
@@ -52,37 +52,52 @@
     <t>D2000</t>
   </si>
   <si>
+    <t>D2200</t>
+  </si>
+  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D4034</t>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D4055</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D5112</t>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D5205</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>D5810</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6030</t>
+    <t>D6212</t>
   </si>
   <si>
     <t>D6215</t>
@@ -91,33 +106,33 @@
     <t>D6700</t>
   </si>
   <si>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
     <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D6760</t>
+    <t>D6750</t>
   </si>
   <si>
     <t>D6780</t>
   </si>
   <si>
-    <t>D6781</t>
-  </si>
-  <si>
     <t>D6790</t>
   </si>
   <si>
+    <t>D7000</t>
+  </si>
+  <si>
     <t>D7010</t>
   </si>
   <si>
-    <t>D8010</t>
-  </si>
-  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -131,12 +146,6 @@
   </si>
   <si>
     <t>D8060</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>D9012</t>
   </si>
 </sst>
 </file>
@@ -499,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>8075.43</v>
+        <v>2610.36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>32807.60</v>
+        <v>38150.94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>11337.81</v>
+        <v>20018.98</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>20617.24</v>
+        <v>16948.44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>4289.14</v>
+        <v>6376.97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>8449.72</v>
+        <v>16760.28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>5806.29</v>
+        <v>8633.05</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>20701.03</v>
+        <v>31334.56</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>14202.35</v>
+        <v>8843.27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>66202.79</v>
+        <v>30142.80</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>14355.24</v>
+        <v>2472.08</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>3270.05</v>
+        <v>9337.50</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +627,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1565.49</v>
+        <v>796.31</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>7526.61</v>
+        <v>6956.22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>1335.31</v>
+        <v>4758.31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>8356.77</v>
+        <v>15378.64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>9542.01</v>
+        <v>5433.11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>14464.06</v>
+        <v>2571.91</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>3228.41</v>
+        <v>629.70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>278.10</v>
+        <v>2638.45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>4881.97</v>
+        <v>3831.08</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>3473.20</v>
+        <v>12041.71</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>1877.22</v>
+        <v>2569.26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>3520.72</v>
+        <v>1762.92</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>2560.46</v>
+        <v>5206.59</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>6140.57</v>
+        <v>13857.35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>5948.91</v>
+        <v>4619.99</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>1688.90</v>
+        <v>12612.41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>240.76</v>
+        <v>3191.58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>4330.24</v>
+        <v>4185.24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>2719.80</v>
+        <v>436.39</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>8379.36</v>
+        <v>1570.17</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>6821.30</v>
+        <v>6836.89</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>6923.07</v>
+        <v>10945.88</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>5213.11</v>
+        <v>6222.71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -802,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>2564.13</v>
+        <v>991.41</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -810,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>6174.90</v>
+        <v>3157.67</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -818,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>2167.37</v>
+        <v>5451.55</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -826,7 +835,31 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>864.00</v>
+        <v>10083.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>6176.47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1621.98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2181.84</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2610.36</v>
+        <v>2900.40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>38150.94</v>
+        <v>41604.88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>20018.98</v>
+        <v>21749.01</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>16948.44</v>
+        <v>18957.71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>6376.97</v>
+        <v>7122.45</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>16760.28</v>
+        <v>18621.40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>8633.05</v>
+        <v>9366.79</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>31334.56</v>
+        <v>34421.29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>8843.27</v>
+        <v>9700.63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>30142.80</v>
+        <v>33881.70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>2472.08</v>
+        <v>2682.53</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>9337.50</v>
+        <v>10101.39</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>6956.22</v>
+        <v>7912.83</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>4758.31</v>
+        <v>5342.84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>15378.64</v>
+        <v>16931.90</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>5433.11</v>
+        <v>6204.23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +667,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>2571.91</v>
+        <v>2628.25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -683,7 +683,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>2638.45</v>
+        <v>3085.38</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>3831.08</v>
+        <v>4196.11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>12041.71</v>
+        <v>13345.00</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +707,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>2569.26</v>
+        <v>2907.53</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1762.92</v>
+        <v>1958.80</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +723,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>5206.59</v>
+        <v>5785.10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>13857.35</v>
+        <v>15475.69</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +739,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>4619.99</v>
+        <v>5208.65</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +747,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>12612.41</v>
+        <v>14072.42</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>3191.58</v>
+        <v>3546.20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>4185.24</v>
+        <v>4566.16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1570.17</v>
+        <v>1740.70</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +787,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>6836.89</v>
+        <v>7458.03</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>10945.88</v>
+        <v>11953.50</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>6222.71</v>
+        <v>6996.91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +811,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>991.41</v>
+        <v>1150.92</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>3157.67</v>
+        <v>3381.74</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +827,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>5451.55</v>
+        <v>5987.07</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>10083.42</v>
+        <v>11203.80</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -843,7 +843,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>6176.47</v>
+        <v>7039.92</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>1621.98</v>
+        <v>1802.20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -859,7 +859,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>2181.84</v>
+        <v>2503.18</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>department</t>
   </si>
@@ -52,52 +52,37 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -106,33 +91,33 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
     <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
   </si>
   <si>
+    <t>D6781</t>
+  </si>
+  <si>
     <t>D6790</t>
   </si>
   <si>
-    <t>D7000</t>
-  </si>
-  <si>
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -146,6 +131,12 @@
   </si>
   <si>
     <t>D8060</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D9012</t>
   </si>
 </sst>
 </file>
@@ -508,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>2900.40</v>
+        <v>8972.70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -539,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>41604.88</v>
+        <v>36873.82</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -547,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>21749.01</v>
+        <v>12551.81</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -555,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>18957.71</v>
+        <v>22750.18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -563,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>7122.45</v>
+        <v>4702.92</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -571,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>18621.40</v>
+        <v>9772.01</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -579,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>9366.79</v>
+        <v>6571.77</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -587,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>34421.29</v>
+        <v>22927.71</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -595,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>9700.63</v>
+        <v>15643.70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -603,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>33881.70</v>
+        <v>67363.52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -611,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>2682.53</v>
+        <v>16195.46</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -619,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>10101.39</v>
+        <v>3565.24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -627,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>796.31</v>
+        <v>1718.87</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -635,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>7912.83</v>
+        <v>8060.14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -643,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>5342.84</v>
+        <v>1490.07</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -651,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>16931.90</v>
+        <v>9285.30</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -659,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>6204.23</v>
+        <v>10232.76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -667,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>2628.25</v>
+        <v>15682.86</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -675,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>629.70</v>
+        <v>3579.27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -683,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>3085.38</v>
+        <v>278.10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -691,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>4196.11</v>
+        <v>5482.03</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -699,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>13345.00</v>
+        <v>3736.56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -707,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>2907.53</v>
+        <v>2085.80</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -715,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1958.80</v>
+        <v>4034.75</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -723,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>5785.10</v>
+        <v>2984.36</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -731,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>15475.69</v>
+        <v>6856.47</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -739,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>5208.65</v>
+        <v>6352.52</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -747,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>14072.42</v>
+        <v>1890.21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -755,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>3546.20</v>
+        <v>240.76</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -763,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>4566.16</v>
+        <v>4661.77</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -771,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>436.39</v>
+        <v>3022.00</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -779,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>1740.70</v>
+        <v>9310.40</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -787,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>7458.03</v>
+        <v>7721.94</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -795,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>11953.50</v>
+        <v>7692.30</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -803,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>6996.91</v>
+        <v>5577.18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -811,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>1150.92</v>
+        <v>2981.55</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -819,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>3381.74</v>
+        <v>6969.28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -827,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>5987.07</v>
+        <v>2762.13</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -835,31 +826,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>11203.80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>7039.92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1802.20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>2503.18</v>
+        <v>864.00</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>department</t>
   </si>
@@ -22,136 +22,121 @@
     <t>total</t>
   </si>
   <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D9012</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
     <t>D6215</t>
   </si>
   <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
     <t>D1030</t>
   </si>
   <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6781</t>
+  </si>
+  <si>
     <t>D1100</t>
   </si>
   <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
   </si>
   <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D6781</t>
-  </si>
-  <si>
     <t>D8040</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
   </si>
 </sst>
 </file>
@@ -514,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>5949.94</v>
+        <v>8461.53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>20840.08</v>
+        <v>14031.95</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>10359.64</v>
+        <v>4906.53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>161.70</v>
+        <v>10899.61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>2154.68</v>
+        <v>602.22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>6363.61</v>
+        <v>2988.61</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>17136.18</v>
+        <v>9869.97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>1982.42</v>
+        <v>8860.49</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -601,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>35278.18</v>
+        <v>2294.38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -609,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>2951.84</v>
+        <v>3154.69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -617,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1927.81</v>
+        <v>3324.20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>3741.67</v>
+        <v>40998.09</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -633,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>2899.63</v>
+        <v>17226.41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -641,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>10923.80</v>
+        <v>4248.25</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -649,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>6201.24</v>
+        <v>4961.07</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -657,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>3155.96</v>
+        <v>864.00</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -665,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>13016.59</v>
+        <v>25284.71</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -673,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>6387.50</v>
+        <v>16930.88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -681,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>3190.44</v>
+        <v>4336.90</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -689,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>8713.53</v>
+        <v>3354.07</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -697,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>3817.59</v>
+        <v>7773.31</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -705,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>15536.68</v>
+        <v>69349.23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -713,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>4947.08</v>
+        <v>1633.23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -721,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>7601.10</v>
+        <v>10241.44</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -729,7 +714,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>23894.11</v>
+        <v>8484.55</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -737,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>20969.60</v>
+        <v>24846.43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -745,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>18702.13</v>
+        <v>3822.24</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -753,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>7028.55</v>
+        <v>1871.68</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -761,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>15551.70</v>
+        <v>10933.36</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -769,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>108.00</v>
+        <v>5954.67</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -777,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>7753.71</v>
+        <v>7724.76</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -785,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>44688.87</v>
+        <v>240.76</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -793,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>7761.86</v>
+        <v>7041.43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -801,7 +786,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>37969.39</v>
+        <v>17953.78</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -809,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>10718.94</v>
+        <v>10213.83</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -817,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>796.31</v>
+        <v>3864.19</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -825,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>629.70</v>
+        <v>6958.90</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -833,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>4543.01</v>
+        <v>2204.95</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -841,47 +826,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>3900.82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>436.39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>8025.09</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1314.11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2">
-        <v>12324.18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2675.37</v>
+        <v>6092.26</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>department</t>
   </si>
@@ -22,118 +22,133 @@
     <t>total</t>
   </si>
   <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D5203</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>D5205</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>D7000</t>
+  </si>
+  <si>
     <t>D8030</t>
   </si>
   <si>
+    <t>D8060</t>
+  </si>
+  <si>
     <t>D1020</t>
   </si>
   <si>
-    <t>D1060</t>
-  </si>
-  <si>
     <t>D1070</t>
   </si>
   <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D9012</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>D6740</t>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5208</t>
   </si>
   <si>
     <t>D6781</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>D6780</t>
   </si>
   <si>
     <t>D8040</t>
@@ -499,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>8461.53</v>
+        <v>7465.62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>14031.95</v>
+        <v>8099.14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4906.53</v>
+        <v>22952.38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>10899.61</v>
+        <v>2568.14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>602.22</v>
+        <v>4032.74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>2988.61</v>
+        <v>14430.73</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>9869.97</v>
+        <v>7992.58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>8860.49</v>
+        <v>4171.81</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>2294.38</v>
+        <v>17182.08</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>3154.69</v>
+        <v>8238.14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>3324.20</v>
+        <v>27882.61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>40998.09</v>
+        <v>13358.63</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>17226.41</v>
+        <v>523.34</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>4248.25</v>
+        <v>2943.62</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>4961.07</v>
+        <v>46224.43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>864.00</v>
+        <v>5848.64</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>25284.71</v>
+        <v>2451.42</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>16930.88</v>
+        <v>4982.64</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>4336.90</v>
+        <v>4060.56</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>3354.07</v>
+        <v>11966.19</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>7773.31</v>
+        <v>4635.05</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>69349.23</v>
+        <v>19771.88</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>1633.23</v>
+        <v>6089.84</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>10241.44</v>
+        <v>9624.44</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>8484.55</v>
+        <v>57656.39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>24846.43</v>
+        <v>9534.82</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>3822.24</v>
+        <v>50490.94</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>1871.68</v>
+        <v>13886.82</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>10933.36</v>
+        <v>796.31</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>5954.67</v>
+        <v>883.95</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>7724.76</v>
+        <v>5616.32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>240.76</v>
+        <v>4964.68</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +793,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>7041.43</v>
+        <v>436.39</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>17953.78</v>
+        <v>10140.12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>10213.83</v>
+        <v>1440.49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -802,7 +817,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>3864.19</v>
+        <v>15706.95</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -810,7 +825,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>6958.90</v>
+        <v>3503.54</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -818,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>2204.95</v>
+        <v>30174.49</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -826,7 +841,47 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>6092.26</v>
+        <v>26896.00</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>23708.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>9152.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>22622.00</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>108.00</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>10072.67</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
+++ b/reports/Month to Date (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>department</t>
   </si>
@@ -22,31 +22,97 @@
     <t>total</t>
   </si>
   <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D9012</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
     <t>D6215</t>
   </si>
   <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
     <t>D8050</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D6780</t>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
   </si>
   <si>
     <t>D8020</t>
@@ -55,103 +121,25 @@
     <t>D1030</t>
   </si>
   <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D5203</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
   </si>
   <si>
     <t>D5810</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
   </si>
   <si>
     <t>D6781</t>
-  </si>
-  <si>
-    <t>D8040</t>
   </si>
 </sst>
 </file>
@@ -514,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>7465.62</v>
+        <v>10769.22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>8099.14</v>
+        <v>18348.86</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>22952.38</v>
+        <v>6465.34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2568.14</v>
+        <v>13390.59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>4032.74</v>
+        <v>2340.66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>14430.73</v>
+        <v>2988.61</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>7992.58</v>
+        <v>12561.78</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>4171.81</v>
+        <v>10617.30</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -601,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>17182.08</v>
+        <v>2920.12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -609,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>8238.14</v>
+        <v>3903.18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -617,7 +605,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>27882.61</v>
+        <v>4230.80</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>13358.63</v>
+        <v>8553.04</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -633,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>523.34</v>
+        <v>24266.53</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -641,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>2943.62</v>
+        <v>12999.42</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -649,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>46224.43</v>
+        <v>5173.15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -657,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>5848.64</v>
+        <v>8793.11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -665,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>2451.42</v>
+        <v>3092.62</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -673,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>4982.64</v>
+        <v>7837.95</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -681,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>4060.56</v>
+        <v>53928.67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -689,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>11966.19</v>
+        <v>22800.12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -697,7 +685,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>4635.05</v>
+        <v>5612.14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -705,7 +693,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>19771.88</v>
+        <v>6709.52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -713,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>6089.84</v>
+        <v>864.00</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -721,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>9624.44</v>
+        <v>33817.39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -729,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>57656.39</v>
+        <v>23750.64</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -737,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>9534.82</v>
+        <v>5555.61</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -745,7 +733,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>50490.94</v>
+        <v>3979.81</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -753,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>13886.82</v>
+        <v>10335.03</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -761,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>796.31</v>
+        <v>79484.02</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -769,7 +757,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>883.95</v>
+        <v>2079.83</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -777,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>5616.32</v>
+        <v>13034.56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -785,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>4964.68</v>
+        <v>10446.70</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -793,7 +781,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>436.39</v>
+        <v>32382.94</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -801,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>10140.12</v>
+        <v>5036.32</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -809,7 +797,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1440.49</v>
+        <v>2387.07</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -817,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>15706.95</v>
+        <v>15231.78</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -825,7 +813,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>3503.54</v>
+        <v>216.21</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -833,7 +821,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>30174.49</v>
+        <v>7859.68</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -841,7 +829,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>26896.00</v>
+        <v>9694.18</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -849,39 +837,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>23708.03</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>9152.71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>22622.00</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2">
-        <v>108.00</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2">
-        <v>10072.67</v>
+        <v>251.96</v>
       </c>
     </row>
   </sheetData>
